--- a/Lesson/Day-04 (03-05-2024)/Day-02 (02-05-2024) Conditional-Formatting.xlsx
+++ b/Lesson/Day-04 (03-05-2024)/Day-02 (02-05-2024) Conditional-Formatting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIG\SupriyaSingh\Office365\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B4D7EC-3843-4804-93F0-305D20B1E2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B03F38-5E65-4A9E-8042-0F6C58BAE597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,12 +200,6 @@
     <t>$110.00</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t>Dates</t>
   </si>
   <si>
@@ -288,6 +282,12 @@
   </si>
   <si>
     <t>=B$27=$H$28</t>
+  </si>
+  <si>
+    <t>&gt;, &lt;, Betw</t>
+  </si>
+  <si>
+    <t>Text Cont</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,142 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -607,34 +742,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -951,7 +1058,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -963,40 +1070,40 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4" s="4">
         <v>45413</v>
@@ -1010,7 +1117,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" s="4">
         <v>45414</v>
@@ -1024,7 +1131,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6" s="4">
         <v>45415</v>
@@ -1038,7 +1145,7 @@
         <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" s="4">
         <v>45416</v>
@@ -1052,7 +1159,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" s="4">
         <v>45417</v>
@@ -1066,7 +1173,7 @@
         <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" s="4">
         <v>45418</v>
@@ -1080,7 +1187,7 @@
         <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" s="4">
         <v>45419</v>
@@ -1094,7 +1201,7 @@
         <v>80</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E11" s="4">
         <v>45420</v>
@@ -1108,7 +1215,7 @@
         <v>90</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="4">
         <v>45421</v>
@@ -1122,7 +1229,7 @@
         <v>100</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E13" s="4">
         <v>45422</v>
@@ -1142,7 +1249,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B4" sqref="B4:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1153,55 +1260,55 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" t="s">
-        <v>74</v>
-      </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>90</v>
@@ -1221,7 +1328,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -1233,15 +1340,15 @@
         <v>40</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>60</v>
@@ -1253,7 +1360,7 @@
         <v>60</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1270,7 +1377,7 @@
         <v>70</v>
       </c>
       <c r="G7">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1287,7 +1394,7 @@
         <v>80</v>
       </c>
       <c r="G8">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1298,13 +1405,13 @@
         <v>90</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <v>90</v>
       </c>
       <c r="G9">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1318,10 +1425,10 @@
         <v>10</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1335,10 +1442,10 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1355,7 +1462,7 @@
         <v>20</v>
       </c>
       <c r="G12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1369,15 +1476,15 @@
         <v>100</v>
       </c>
       <c r="F13">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G13">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C1:G13">
-    <sortCondition descending="1" sortBy="icon" ref="F1:F13" iconSet="5Arrows" iconId="0"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G5:G13">
+    <sortCondition sortBy="icon" ref="G5:G13" iconSet="5Rating" iconId="4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1388,7 +1495,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:D35"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1450,7 +1557,7 @@
         <v>23</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1596,7 +1703,7 @@
         <v>29</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1699,7 +1806,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1739,7 +1846,7 @@
         <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
@@ -1759,7 +1866,7 @@
         <v>43</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1776,7 +1883,7 @@
         <v>46</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1857,22 +1964,22 @@
     <mergeCell ref="A26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:A12">
-    <cfRule type="expression" dxfId="23" priority="5">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>A5=$G$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:D24">
-    <cfRule type="expression" dxfId="22" priority="4">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>$A17=$G$17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>$A28=$G$28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>B$27=$H$28</formula>
     </cfRule>
   </conditionalFormatting>
